--- a/Python/Modulo 5/M5_02_Excel/02_Excel_data.xlsx
+++ b/Python/Modulo 5/M5_02_Excel/02_Excel_data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristian\Anaconda_Projects\Curso Python\Modulo 5\Ejercicios\02_Excel_CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\Tokio_School\Python\Modulo 5\M5_02_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5804B329-F72B-4FF5-8AED-DBE6F093C25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="address" sheetId="1" r:id="rId1"/>
     <sheet name="ventas" sheetId="2" r:id="rId2"/>
-    <sheet name="Olimpiadas" sheetId="4" r:id="rId3"/>
+    <sheet name="Olimpiadas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
@@ -233,7 +234,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
@@ -559,14 +560,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -835,14 +836,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
@@ -922,13 +923,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>